--- a/Data/Juveniles/Data/R_wax_dipping.xlsx
+++ b/Data/Juveniles/Data/R_wax_dipping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina Bean\Documents\Projects\Metabolic_scaling\Data\Juveniles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89975A92-4B09-42CE-8150-9E8BB4FDB429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC6EA20-97B6-4FFE-A1FD-2DCBA1A4147A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="310" yWindow="0" windowWidth="18820" windowHeight="9160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="310" yWindow="0" windowWidth="18820" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">#SA.dip2.cm2 (Surface area from change in wax weight)=weight of dip 2 in grams* calibration curve slope </t>
   </si>
   <si>
-    <t>#SA.shape.cm2.hemi (Surface area estimated from geometry assuming both corals are a</t>
+    <t>#hemi-ellipsoid= (2*3.14*height*radius1*radius2)</t>
   </si>
   <si>
-    <t>#hemi-ellipsoid= (2*3.14*height*radius1*radius2)</t>
+    <t>#SA.shape.cm2.hemi (Surface area estimated from geometry assuming both corals are a hemi-ellipsoid</t>
   </si>
 </sst>
 </file>
@@ -490,9 +490,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -520,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -554,10 +567,10 @@
       <c r="H2">
         <v>0.46400000000000041</v>
       </c>
+      <c r="I2">
+        <v>34.589694656488582</v>
+      </c>
       <c r="J2">
-        <v>34.589694656488582</v>
-      </c>
-      <c r="K2">
         <v>17.040780000000002</v>
       </c>
     </row>
@@ -586,10 +599,10 @@
       <c r="H3">
         <v>0.61100000000000065</v>
       </c>
+      <c r="I3">
+        <v>45.548067748091647</v>
+      </c>
       <c r="J3">
-        <v>45.548067748091647</v>
-      </c>
-      <c r="K3">
         <v>24.664875840000001</v>
       </c>
     </row>
@@ -618,10 +631,10 @@
       <c r="H4">
         <v>1.0620000000000009</v>
       </c>
+      <c r="I4">
+        <v>79.168654580152761</v>
+      </c>
       <c r="J4">
-        <v>79.168654580152761</v>
-      </c>
-      <c r="K4">
         <v>44.944704000000002</v>
       </c>
     </row>
@@ -650,10 +663,10 @@
       <c r="H5">
         <v>0.39499999999999957</v>
       </c>
+      <c r="I5">
+        <v>29.445968511450349</v>
+      </c>
       <c r="J5">
-        <v>29.445968511450349</v>
-      </c>
-      <c r="K5">
         <v>12.505050000000001</v>
       </c>
     </row>
@@ -682,10 +695,10 @@
       <c r="H6">
         <v>9.8999999999999755E-2</v>
       </c>
+      <c r="I6">
+        <v>7.3801288167938752</v>
+      </c>
       <c r="J6">
-        <v>7.3801288167938752</v>
-      </c>
-      <c r="K6">
         <v>2.9884949999999999</v>
       </c>
     </row>
@@ -702,11 +715,11 @@
       <c r="D7">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7">
+        <v>53.505599999999987</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
-      </c>
-      <c r="K7">
-        <v>53.505599999999987</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -734,10 +747,10 @@
       <c r="H8">
         <v>0.28100000000000058</v>
       </c>
+      <c r="I8">
+        <v>20.947638358778669</v>
+      </c>
       <c r="J8">
-        <v>20.947638358778669</v>
-      </c>
-      <c r="K8">
         <v>8.7701479550000006</v>
       </c>
     </row>
@@ -766,10 +779,10 @@
       <c r="H9">
         <v>0.58399999999999963</v>
       </c>
+      <c r="I9">
+        <v>43.535305343511432</v>
+      </c>
       <c r="J9">
-        <v>43.535305343511432</v>
-      </c>
-      <c r="K9">
         <v>23.708381599999999</v>
       </c>
     </row>
@@ -798,10 +811,10 @@
       <c r="H10">
         <v>0.65700000000000003</v>
       </c>
+      <c r="I10">
+        <v>48.977218511450381</v>
+      </c>
       <c r="J10">
-        <v>48.977218511450381</v>
-      </c>
-      <c r="K10">
         <v>18.75294036</v>
       </c>
     </row>
@@ -830,10 +843,10 @@
       <c r="H11">
         <v>0.34300000000000352</v>
       </c>
+      <c r="I11">
+        <v>25.56953721374072</v>
+      </c>
       <c r="J11">
-        <v>25.56953721374072</v>
-      </c>
-      <c r="K11">
         <v>9.8125</v>
       </c>
     </row>
@@ -862,10 +875,10 @@
       <c r="H12">
         <v>0.31700000000000023</v>
       </c>
+      <c r="I12">
+        <v>23.631321564885511</v>
+      </c>
       <c r="J12">
-        <v>23.631321564885511</v>
-      </c>
-      <c r="K12">
         <v>9.2461821600000018</v>
       </c>
     </row>
@@ -894,10 +907,10 @@
       <c r="H13">
         <v>0.41000000000000009</v>
       </c>
+      <c r="I13">
+        <v>30.564169847328259</v>
+      </c>
       <c r="J13">
-        <v>30.564169847328259</v>
-      </c>
-      <c r="K13">
         <v>11.196555480000001</v>
       </c>
     </row>
@@ -923,10 +936,10 @@
       <c r="H14">
         <v>3.8000000000000027E-2</v>
       </c>
+      <c r="I14">
+        <v>2.8327767175572549</v>
+      </c>
       <c r="J14">
-        <v>2.8327767175572549</v>
-      </c>
-      <c r="K14">
         <v>0.71166215999999982</v>
       </c>
     </row>
@@ -955,10 +968,10 @@
       <c r="H15">
         <v>0.43900000000000011</v>
       </c>
+      <c r="I15">
+        <v>32.726025763358777</v>
+      </c>
       <c r="J15">
-        <v>32.726025763358777</v>
-      </c>
-      <c r="K15">
         <v>15.1254428</v>
       </c>
     </row>
@@ -987,10 +1000,10 @@
       <c r="H16">
         <v>0.38200000000000151</v>
       </c>
+      <c r="I16">
+        <v>28.476860687023009</v>
+      </c>
       <c r="J16">
-        <v>28.476860687023009</v>
-      </c>
-      <c r="K16">
         <v>15.222249</v>
       </c>
     </row>
@@ -1019,10 +1032,10 @@
       <c r="H17">
         <v>0.14499999999999999</v>
       </c>
+      <c r="I17">
+        <v>10.809279580152671</v>
+      </c>
       <c r="J17">
-        <v>10.809279580152671</v>
-      </c>
-      <c r="K17">
         <v>5.6274687500000002</v>
       </c>
     </row>
@@ -1051,10 +1064,10 @@
       <c r="H18">
         <v>0.40200000000000102</v>
       </c>
+      <c r="I18">
+        <v>29.96779580152679</v>
+      </c>
       <c r="J18">
-        <v>29.96779580152679</v>
-      </c>
-      <c r="K18">
         <v>17.233996760000011</v>
       </c>
     </row>
@@ -1083,10 +1096,10 @@
       <c r="H19">
         <v>9.099999999999997E-2</v>
       </c>
+      <c r="I19">
+        <v>6.7837547709923642</v>
+      </c>
       <c r="J19">
-        <v>6.7837547709923642</v>
-      </c>
-      <c r="K19">
         <v>2.3195808000000002</v>
       </c>
     </row>
@@ -1115,10 +1128,10 @@
       <c r="H20">
         <v>0.29199999999999982</v>
       </c>
+      <c r="I20">
+        <v>21.767652671755709</v>
+      </c>
       <c r="J20">
-        <v>21.767652671755709</v>
-      </c>
-      <c r="K20">
         <v>9.8883184400000008</v>
       </c>
     </row>
@@ -1147,10 +1160,10 @@
       <c r="H21">
         <v>0.91799999999999926</v>
       </c>
+      <c r="I21">
+        <v>68.433921755725137</v>
+      </c>
       <c r="J21">
-        <v>68.433921755725137</v>
-      </c>
-      <c r="K21">
         <v>47.173866930000017</v>
       </c>
     </row>
@@ -1179,14 +1192,14 @@
       <c r="H22">
         <v>0.4220000000000006</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22">
+        <v>31.458730916030579</v>
+      </c>
+      <c r="J22">
+        <v>12.8416266</v>
+      </c>
+      <c r="K22" t="s">
         <v>13</v>
-      </c>
-      <c r="J22">
-        <v>31.458730916030579</v>
-      </c>
-      <c r="K22">
-        <v>12.8416266</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1214,14 +1227,14 @@
       <c r="H23">
         <v>0.16800000000000101</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23">
+        <v>12.523854961832139</v>
+      </c>
+      <c r="J23">
+        <v>6.4251936000000009</v>
+      </c>
+      <c r="K23" t="s">
         <v>14</v>
-      </c>
-      <c r="J23">
-        <v>12.523854961832139</v>
-      </c>
-      <c r="K23">
-        <v>6.4251936000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1249,10 +1262,10 @@
       <c r="H24">
         <v>1.050000000000004</v>
       </c>
+      <c r="I24">
+        <v>78.274093511450701</v>
+      </c>
       <c r="J24">
-        <v>78.274093511450701</v>
-      </c>
-      <c r="K24">
         <v>39.215836800000012</v>
       </c>
     </row>
@@ -1281,10 +1294,10 @@
       <c r="H25">
         <v>1.154999999999998</v>
       </c>
+      <c r="I25">
+        <v>86.10150286259524</v>
+      </c>
       <c r="J25">
-        <v>86.10150286259524</v>
-      </c>
-      <c r="K25">
         <v>54.554359999999988</v>
       </c>
     </row>
@@ -1313,10 +1326,10 @@
       <c r="H26">
         <v>0.56899999999999551</v>
       </c>
+      <c r="I26">
+        <v>42.417104007633263</v>
+      </c>
       <c r="J26">
-        <v>42.417104007633263</v>
-      </c>
-      <c r="K26">
         <v>16.746762960000002</v>
       </c>
     </row>
@@ -1345,10 +1358,10 @@
       <c r="H27">
         <v>0.43799999999999878</v>
       </c>
+      <c r="I27">
+        <v>32.651479007633498</v>
+      </c>
       <c r="J27">
-        <v>32.651479007633498</v>
-      </c>
-      <c r="K27">
         <v>18.5196258</v>
       </c>
     </row>
@@ -1377,10 +1390,10 @@
       <c r="H28">
         <v>0.94200000000000017</v>
       </c>
+      <c r="I28">
+        <v>70.223043893129784</v>
+      </c>
       <c r="J28">
-        <v>70.223043893129784</v>
-      </c>
-      <c r="K28">
         <v>41.861349599999997</v>
       </c>
     </row>
@@ -1409,10 +1422,10 @@
       <c r="H29">
         <v>0.36800000000000033</v>
       </c>
+      <c r="I29">
+        <v>27.433206106870259</v>
+      </c>
       <c r="J29">
-        <v>27.433206106870259</v>
-      </c>
-      <c r="K29">
         <v>13.696562249999999</v>
       </c>
     </row>
@@ -1441,10 +1454,10 @@
       <c r="H30">
         <v>0.73499999999999943</v>
       </c>
+      <c r="I30">
+        <v>54.791865458015216</v>
+      </c>
       <c r="J30">
-        <v>54.791865458015216</v>
-      </c>
-      <c r="K30">
         <v>24.77022912</v>
       </c>
     </row>
@@ -1473,10 +1486,10 @@
       <c r="H31">
         <v>0.76599999999999824</v>
       </c>
+      <c r="I31">
+        <v>57.102814885496052</v>
+      </c>
       <c r="J31">
-        <v>57.102814885496052</v>
-      </c>
-      <c r="K31">
         <v>34.576373760000003</v>
       </c>
     </row>
@@ -1505,14 +1518,14 @@
       <c r="H32">
         <v>0.21</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32">
+        <v>15.65481870229007</v>
+      </c>
+      <c r="J32">
+        <v>6.8915212800000001</v>
+      </c>
+      <c r="K32" t="s">
         <v>15</v>
-      </c>
-      <c r="J32">
-        <v>15.65481870229007</v>
-      </c>
-      <c r="K32">
-        <v>6.8915212800000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1540,10 +1553,10 @@
       <c r="H33">
         <v>1.1069999999999991</v>
       </c>
+      <c r="I33">
+        <v>82.523258587786202</v>
+      </c>
       <c r="J33">
-        <v>82.523258587786202</v>
-      </c>
-      <c r="K33">
         <v>44.121292380000007</v>
       </c>
     </row>
@@ -1572,10 +1585,10 @@
       <c r="H34">
         <v>0.36400000000000082</v>
       </c>
+      <c r="I34">
+        <v>27.135019083969521</v>
+      </c>
       <c r="J34">
-        <v>27.135019083969521</v>
-      </c>
-      <c r="K34">
         <v>14.360946999999999</v>
       </c>
     </row>
@@ -1604,10 +1617,10 @@
       <c r="H35">
         <v>0.22900000000000009</v>
       </c>
+      <c r="I35">
+        <v>17.071207061068709</v>
+      </c>
       <c r="J35">
-        <v>17.071207061068709</v>
-      </c>
-      <c r="K35">
         <v>8.6978156999999996</v>
       </c>
     </row>
@@ -1636,14 +1649,14 @@
       <c r="H36">
         <v>0.18200000000000041</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36">
+        <v>13.56750954198476</v>
+      </c>
+      <c r="J36">
+        <v>6.8803680000000007</v>
+      </c>
+      <c r="K36" t="s">
         <v>16</v>
-      </c>
-      <c r="J36">
-        <v>13.56750954198476</v>
-      </c>
-      <c r="K36">
-        <v>6.8803680000000007</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -1671,10 +1684,10 @@
       <c r="H37">
         <v>0.10400000000000099</v>
       </c>
+      <c r="I37">
+        <v>7.7528625954199208</v>
+      </c>
       <c r="J37">
-        <v>7.7528625954199208</v>
-      </c>
-      <c r="K37">
         <v>3.707109120000001</v>
       </c>
     </row>
@@ -1703,10 +1716,10 @@
       <c r="H38">
         <v>0.57999999999999829</v>
       </c>
+      <c r="I38">
+        <v>43.237118320610563</v>
+      </c>
       <c r="J38">
-        <v>43.237118320610563</v>
-      </c>
-      <c r="K38">
         <v>24.628930690000001</v>
       </c>
     </row>
@@ -1735,10 +1748,10 @@
       <c r="H39">
         <v>0.59500000000000242</v>
       </c>
+      <c r="I39">
+        <v>44.355319656488732</v>
+      </c>
       <c r="J39">
-        <v>44.355319656488732</v>
-      </c>
-      <c r="K39">
         <v>27.127715999999999</v>
       </c>
     </row>
@@ -1767,14 +1780,14 @@
       <c r="H40">
         <v>0.3530000000000007</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40">
+        <v>26.31500477099241</v>
+      </c>
+      <c r="J40">
+        <v>14.3378994</v>
+      </c>
+      <c r="K40" t="s">
         <v>17</v>
-      </c>
-      <c r="J40">
-        <v>26.31500477099241</v>
-      </c>
-      <c r="K40">
-        <v>14.3378994</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -1802,10 +1815,10 @@
       <c r="H41">
         <v>0.1310000000000002</v>
       </c>
+      <c r="I41">
+        <v>9.7656250000000178</v>
+      </c>
       <c r="J41">
-        <v>9.7656250000000178</v>
-      </c>
-      <c r="K41">
         <v>2.9273968799999999</v>
       </c>
     </row>
@@ -1834,10 +1847,10 @@
       <c r="H42">
         <v>0.83000000000000185</v>
       </c>
+      <c r="I42">
+        <v>61.873807251908538</v>
+      </c>
       <c r="J42">
-        <v>61.873807251908538</v>
-      </c>
-      <c r="K42">
         <v>27.2129984</v>
       </c>
     </row>
@@ -1863,10 +1876,10 @@
       <c r="H43">
         <v>0.69299999999999784</v>
       </c>
+      <c r="I43">
+        <v>51.660901717557088</v>
+      </c>
       <c r="J43">
-        <v>51.660901717557088</v>
-      </c>
-      <c r="K43">
         <v>34.990589999999997</v>
       </c>
     </row>
@@ -1895,10 +1908,10 @@
       <c r="H44">
         <v>0.15599999999999881</v>
       </c>
+      <c r="I44">
+        <v>11.629293893129679</v>
+      </c>
       <c r="J44">
-        <v>11.629293893129679</v>
-      </c>
-      <c r="K44">
         <v>7.4543992500000007</v>
       </c>
     </row>
@@ -1927,10 +1940,10 @@
       <c r="H45">
         <v>0.22200000000000131</v>
       </c>
+      <c r="I45">
+        <v>16.549379770992459</v>
+      </c>
       <c r="J45">
-        <v>16.549379770992459</v>
-      </c>
-      <c r="K45">
         <v>6.9105120000000024</v>
       </c>
     </row>
@@ -1959,10 +1972,10 @@
       <c r="H46">
         <v>8.9999999999999858E-2</v>
       </c>
+      <c r="I46">
+        <v>6.7092080152671647</v>
+      </c>
       <c r="J46">
-        <v>6.7092080152671647</v>
-      </c>
-      <c r="K46">
         <v>5.8823190000000007</v>
       </c>
     </row>
@@ -1991,10 +2004,10 @@
       <c r="H47">
         <v>0.18400000000000111</v>
       </c>
+      <c r="I47">
+        <v>13.71660305343519</v>
+      </c>
       <c r="J47">
-        <v>13.71660305343519</v>
-      </c>
-      <c r="K47">
         <v>7.5390143999999983</v>
       </c>
     </row>
@@ -2023,10 +2036,10 @@
       <c r="H48">
         <v>0.13700000000000001</v>
       </c>
+      <c r="I48">
+        <v>10.212905534351149</v>
+      </c>
       <c r="J48">
-        <v>10.212905534351149</v>
-      </c>
-      <c r="K48">
         <v>7.1480011899999996</v>
       </c>
     </row>
@@ -2055,10 +2068,10 @@
       <c r="H49">
         <v>1.005000000000003</v>
       </c>
+      <c r="I49">
+        <v>74.91948950381699</v>
+      </c>
       <c r="J49">
-        <v>74.91948950381699</v>
-      </c>
-      <c r="K49">
         <v>43.185754500000002</v>
       </c>
     </row>
@@ -2087,14 +2100,14 @@
       <c r="H50">
         <v>0.16199999999999989</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50">
+        <v>12.07657442748091</v>
+      </c>
+      <c r="J50">
+        <v>6.0005399999999991</v>
+      </c>
+      <c r="K50" t="s">
         <v>18</v>
-      </c>
-      <c r="J50">
-        <v>12.07657442748091</v>
-      </c>
-      <c r="K50">
-        <v>6.0005399999999991</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2122,10 +2135,10 @@
       <c r="H51">
         <v>0.1639999999999997</v>
       </c>
+      <c r="I51">
+        <v>12.225667938931281</v>
+      </c>
       <c r="J51">
-        <v>12.225667938931281</v>
-      </c>
-      <c r="K51">
         <v>4.1213756000000004</v>
       </c>
     </row>
@@ -2154,10 +2167,10 @@
       <c r="H52">
         <v>0.17399999999999949</v>
       </c>
+      <c r="I52">
+        <v>12.97113549618317</v>
+      </c>
       <c r="J52">
-        <v>12.97113549618317</v>
-      </c>
-      <c r="K52">
         <v>4.7199946200000014</v>
       </c>
     </row>
@@ -2186,10 +2199,10 @@
       <c r="H53">
         <v>0.1170000000000004</v>
       </c>
+      <c r="I53">
+        <v>8.7219704198473611</v>
+      </c>
       <c r="J53">
-        <v>8.7219704198473611</v>
-      </c>
-      <c r="K53">
         <v>3.163000499999999</v>
       </c>
     </row>
@@ -2218,10 +2231,10 @@
       <c r="H54">
         <v>0.12699999999999889</v>
       </c>
+      <c r="I54">
+        <v>9.4674379770991539</v>
+      </c>
       <c r="J54">
-        <v>9.4674379770991539</v>
-      </c>
-      <c r="K54">
         <v>2.3042073600000008</v>
       </c>
     </row>
@@ -2250,10 +2263,10 @@
       <c r="H55">
         <v>0.40000000000000208</v>
       </c>
+      <c r="I55">
+        <v>29.818702290076491</v>
+      </c>
       <c r="J55">
-        <v>29.818702290076491</v>
-      </c>
-      <c r="K55">
         <v>12.472315500000001</v>
       </c>
     </row>
@@ -2282,14 +2295,14 @@
       <c r="H56">
         <v>0.91400000000000148</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56">
+        <v>68.135734732824531</v>
+      </c>
+      <c r="J56">
+        <v>34.795238040000008</v>
+      </c>
+      <c r="K56" t="s">
         <v>19</v>
-      </c>
-      <c r="J56">
-        <v>68.135734732824531</v>
-      </c>
-      <c r="K56">
-        <v>34.795238040000008</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -2314,14 +2327,14 @@
       <c r="H57">
         <v>0.50200000000000067</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57">
+        <v>37.422471374045848</v>
+      </c>
+      <c r="J57">
+        <v>16.193388200000001</v>
+      </c>
+      <c r="K57" t="s">
         <v>20</v>
-      </c>
-      <c r="J57">
-        <v>37.422471374045848</v>
-      </c>
-      <c r="K57">
-        <v>16.193388200000001</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -2349,14 +2362,14 @@
       <c r="H58">
         <v>0.58200000000000074</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58">
+        <v>43.386211832061122</v>
+      </c>
+      <c r="J58">
+        <v>17.760342399999999</v>
+      </c>
+      <c r="K58" t="s">
         <v>21</v>
-      </c>
-      <c r="J58">
-        <v>43.386211832061122</v>
-      </c>
-      <c r="K58">
-        <v>17.760342399999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -2384,10 +2397,10 @@
       <c r="H59">
         <v>0.55400000000000027</v>
       </c>
+      <c r="I59">
+        <v>41.298902671755748</v>
+      </c>
       <c r="J59">
-        <v>41.298902671755748</v>
-      </c>
-      <c r="K59">
         <v>23.611206450000001</v>
       </c>
     </row>
@@ -2416,10 +2429,10 @@
       <c r="H60">
         <v>0.57399999999999984</v>
       </c>
+      <c r="I60">
+        <v>42.789837786259532</v>
+      </c>
       <c r="J60">
-        <v>42.789837786259532</v>
-      </c>
-      <c r="K60">
         <v>25.11166016</v>
       </c>
     </row>
@@ -2445,10 +2458,10 @@
       <c r="H61">
         <v>0.65799999999999947</v>
       </c>
+      <c r="I61">
+        <v>49.051765267175533</v>
+      </c>
       <c r="J61">
-        <v>49.051765267175533</v>
-      </c>
-      <c r="K61">
         <v>25.806608100000009</v>
       </c>
     </row>
@@ -2477,14 +2490,14 @@
       <c r="H62">
         <v>0.16000000000000009</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62">
+        <v>11.92748091603055</v>
+      </c>
+      <c r="J62">
+        <v>5.2775550000000013</v>
+      </c>
+      <c r="K62" t="s">
         <v>22</v>
-      </c>
-      <c r="J62">
-        <v>11.92748091603055</v>
-      </c>
-      <c r="K62">
-        <v>5.2775550000000013</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -2512,10 +2525,10 @@
       <c r="H63">
         <v>0.20900000000000049</v>
       </c>
+      <c r="I63">
+        <v>15.58027194656492</v>
+      </c>
       <c r="J63">
-        <v>15.58027194656492</v>
-      </c>
-      <c r="K63">
         <v>7.5831000000000008</v>
       </c>
     </row>
@@ -2544,14 +2557,14 @@
       <c r="H64">
         <v>0.16200000000000039</v>
       </c>
+      <c r="I64">
+        <v>12.07657442748094</v>
+      </c>
       <c r="J64">
-        <v>12.07657442748094</v>
-      </c>
-      <c r="K64">
         <v>5.3128799999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2576,14 +2589,14 @@
       <c r="H65">
         <v>0.20599999999999949</v>
       </c>
+      <c r="I65">
+        <v>15.356631679389279</v>
+      </c>
       <c r="J65">
-        <v>15.356631679389279</v>
-      </c>
-      <c r="K65">
         <v>4.772800000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -2608,14 +2621,14 @@
       <c r="H66">
         <v>0.12800000000000011</v>
       </c>
+      <c r="I66">
+        <v>9.5419847328244352</v>
+      </c>
       <c r="J66">
-        <v>9.5419847328244352</v>
-      </c>
-      <c r="K66">
         <v>6.6036162500000009</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -2640,14 +2653,14 @@
       <c r="H67">
         <v>0.32999999999999829</v>
       </c>
+      <c r="I67">
+        <v>24.600429389312851</v>
+      </c>
       <c r="J67">
-        <v>24.600429389312851</v>
-      </c>
-      <c r="K67">
         <v>17.962056</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -2672,14 +2685,14 @@
       <c r="H68">
         <v>7.1999999999999176E-2</v>
       </c>
+      <c r="I68">
+        <v>5.3673664122136788</v>
+      </c>
       <c r="J68">
-        <v>5.3673664122136788</v>
-      </c>
-      <c r="K68">
         <v>1.14453</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -2704,14 +2717,14 @@
       <c r="H69">
         <v>0.12399999999999969</v>
       </c>
+      <c r="I69">
+        <v>9.2437977099236388</v>
+      </c>
       <c r="J69">
-        <v>9.2437977099236388</v>
-      </c>
-      <c r="K69">
         <v>3.7460513999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2733,14 +2746,14 @@
       <c r="H70">
         <v>0.15800000000000039</v>
       </c>
+      <c r="I70">
+        <v>11.77838740458018</v>
+      </c>
       <c r="J70">
-        <v>11.77838740458018</v>
-      </c>
-      <c r="K70">
         <v>6.532299000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -2765,14 +2778,14 @@
       <c r="H71">
         <v>0.65699999999999648</v>
       </c>
+      <c r="I71">
+        <v>48.977218511450118</v>
+      </c>
       <c r="J71">
-        <v>48.977218511450118</v>
-      </c>
-      <c r="K71">
         <v>39.902492000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -2794,14 +2807,14 @@
       <c r="H72">
         <v>0.39500000000000141</v>
       </c>
+      <c r="I72">
+        <v>29.445968511450481</v>
+      </c>
       <c r="J72">
-        <v>29.445968511450481</v>
-      </c>
-      <c r="K72">
         <v>21.480209339999998</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2826,14 +2839,14 @@
       <c r="H73">
         <v>0.13099999999999981</v>
       </c>
+      <c r="I73">
+        <v>9.765624999999984</v>
+      </c>
       <c r="J73">
-        <v>9.765624999999984</v>
-      </c>
-      <c r="K73">
         <v>4.9015399999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2858,14 +2871,14 @@
       <c r="H74">
         <v>0.19700000000000009</v>
       </c>
+      <c r="I74">
+        <v>14.685710877862601</v>
+      </c>
       <c r="J74">
-        <v>14.685710877862601</v>
-      </c>
-      <c r="K74">
         <v>11.230995</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -2890,14 +2903,14 @@
       <c r="H75">
         <v>0.30799999999999977</v>
       </c>
+      <c r="I75">
+        <v>22.96040076335877</v>
+      </c>
       <c r="J75">
-        <v>22.96040076335877</v>
-      </c>
-      <c r="K75">
         <v>16.723749900000001</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -2922,14 +2935,14 @@
       <c r="H76">
         <v>0.25900000000000029</v>
       </c>
+      <c r="I76">
+        <v>19.307609732824449</v>
+      </c>
       <c r="J76">
-        <v>19.307609732824449</v>
-      </c>
-      <c r="K76">
         <v>12.7647908</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -2954,14 +2967,14 @@
       <c r="H77">
         <v>0.1829999999999998</v>
       </c>
+      <c r="I77">
+        <v>13.64205629770991</v>
+      </c>
       <c r="J77">
-        <v>13.64205629770991</v>
-      </c>
-      <c r="K77">
         <v>7.8913538000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -2986,14 +2999,14 @@
       <c r="H78">
         <v>0.34300000000000003</v>
       </c>
+      <c r="I78">
+        <v>25.56953721374046</v>
+      </c>
       <c r="J78">
-        <v>25.56953721374046</v>
-      </c>
-      <c r="K78">
         <v>13.159664640000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -3018,14 +3031,14 @@
       <c r="H79">
         <v>8.4000000000000075E-2</v>
       </c>
+      <c r="I79">
+        <v>6.2619274809160359</v>
+      </c>
       <c r="J79">
-        <v>6.2619274809160359</v>
-      </c>
-      <c r="K79">
         <v>4.0500347999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -3050,10 +3063,10 @@
       <c r="H80">
         <v>7.6000000000000068E-2</v>
       </c>
+      <c r="I80">
+        <v>5.6655534351145089</v>
+      </c>
       <c r="J80">
-        <v>5.6655534351145089</v>
-      </c>
-      <c r="K80">
         <v>1.9782</v>
       </c>
     </row>
@@ -3082,10 +3095,10 @@
       <c r="H81">
         <v>0.109</v>
       </c>
+      <c r="I81">
+        <v>8.1255963740458004</v>
+      </c>
       <c r="J81">
-        <v>8.1255963740458004</v>
-      </c>
-      <c r="K81">
         <v>2.9134270200000012</v>
       </c>
     </row>
@@ -3114,14 +3127,14 @@
       <c r="H82">
         <v>0.1050000000000004</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82">
+        <v>7.8274093511450697</v>
+      </c>
+      <c r="J82">
+        <v>4.7205503999999987</v>
+      </c>
+      <c r="K82" t="s">
         <v>18</v>
-      </c>
-      <c r="J82">
-        <v>7.8274093511450697</v>
-      </c>
-      <c r="K82">
-        <v>4.7205503999999987</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3149,10 +3162,10 @@
       <c r="H83">
         <v>0.51200000000000045</v>
       </c>
+      <c r="I83">
+        <v>38.167938931297741</v>
+      </c>
       <c r="J83">
-        <v>38.167938931297741</v>
-      </c>
-      <c r="K83">
         <v>25.571688999999999</v>
       </c>
     </row>
@@ -3181,10 +3194,10 @@
       <c r="H84">
         <v>0.3230000000000004</v>
       </c>
+      <c r="I84">
+        <v>24.078602099236669</v>
+      </c>
       <c r="J84">
-        <v>24.078602099236669</v>
-      </c>
-      <c r="K84">
         <v>11.513123999999999</v>
       </c>
     </row>
@@ -3213,10 +3226,10 @@
       <c r="H85">
         <v>0.1120000000000001</v>
       </c>
+      <c r="I85">
+        <v>8.3492366412213812</v>
+      </c>
       <c r="J85">
-        <v>8.3492366412213812</v>
-      </c>
-      <c r="K85">
         <v>3.98728975</v>
       </c>
     </row>
@@ -3245,10 +3258,10 @@
       <c r="H86">
         <v>0.1020000000000003</v>
       </c>
+      <c r="I86">
+        <v>7.6037690839694889</v>
+      </c>
       <c r="J86">
-        <v>7.6037690839694889</v>
-      </c>
-      <c r="K86">
         <v>4.1165399999999996</v>
       </c>
     </row>
@@ -3277,10 +3290,10 @@
       <c r="H87">
         <v>0.15200000000000011</v>
       </c>
+      <c r="I87">
+        <v>11.33110687022902</v>
+      </c>
       <c r="J87">
-        <v>11.33110687022902</v>
-      </c>
-      <c r="K87">
         <v>3.2022819</v>
       </c>
     </row>
@@ -3309,10 +3322,10 @@
       <c r="H88">
         <v>0.1419999999999999</v>
       </c>
+      <c r="I88">
+        <v>10.58563931297709</v>
+      </c>
       <c r="J88">
-        <v>10.58563931297709</v>
-      </c>
-      <c r="K88">
         <v>6.8860199999999994</v>
       </c>
     </row>
@@ -3341,10 +3354,10 @@
       <c r="H89">
         <v>6.0000000000000497E-2</v>
       </c>
+      <c r="I89">
+        <v>4.4728053435114878</v>
+      </c>
       <c r="J89">
-        <v>4.4728053435114878</v>
-      </c>
-      <c r="K89">
         <v>1.143745</v>
       </c>
     </row>
@@ -3373,10 +3386,10 @@
       <c r="H90">
         <v>0.13499999999999979</v>
       </c>
+      <c r="I90">
+        <v>10.06381202290075</v>
+      </c>
       <c r="J90">
-        <v>10.06381202290075</v>
-      </c>
-      <c r="K90">
         <v>3.0959929000000002</v>
       </c>
     </row>
@@ -3405,10 +3418,10 @@
       <c r="H91">
         <v>0.24000000000000199</v>
       </c>
+      <c r="I91">
+        <v>17.891221374045951</v>
+      </c>
       <c r="J91">
-        <v>17.891221374045951</v>
-      </c>
-      <c r="K91">
         <v>10.498747</v>
       </c>
     </row>
@@ -3437,10 +3450,10 @@
       <c r="H92">
         <v>0.30900000000000111</v>
       </c>
+      <c r="I92">
+        <v>23.034947519084049</v>
+      </c>
       <c r="J92">
-        <v>23.034947519084049</v>
-      </c>
-      <c r="K92">
         <v>25.120000000000012</v>
       </c>
     </row>
@@ -3469,10 +3482,10 @@
       <c r="H93">
         <v>7.299999999999951E-2</v>
       </c>
+      <c r="I93">
+        <v>5.4419131679388943</v>
+      </c>
       <c r="J93">
-        <v>5.4419131679388943</v>
-      </c>
-      <c r="K93">
         <v>1.6047221199999999</v>
       </c>
     </row>
@@ -3501,10 +3514,10 @@
       <c r="H94">
         <v>9.9999999999999645E-2</v>
       </c>
+      <c r="I94">
+        <v>7.4546755725190579</v>
+      </c>
       <c r="J94">
-        <v>7.4546755725190579</v>
-      </c>
-      <c r="K94">
         <v>2.09124</v>
       </c>
     </row>
@@ -3533,10 +3546,10 @@
       <c r="H95">
         <v>0.21600000000000111</v>
       </c>
+      <c r="I95">
+        <v>16.102099236641301</v>
+      </c>
       <c r="J95">
-        <v>16.102099236641301</v>
-      </c>
-      <c r="K95">
         <v>7.8217400000000001</v>
       </c>
     </row>
@@ -3565,14 +3578,14 @@
       <c r="H96">
         <v>0.37099999999999872</v>
       </c>
+      <c r="I96">
+        <v>27.656846374045699</v>
+      </c>
       <c r="J96">
-        <v>27.656846374045699</v>
-      </c>
-      <c r="K96">
         <v>16.43015205</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -3597,14 +3610,14 @@
       <c r="H97">
         <v>0.17299999999999999</v>
       </c>
+      <c r="I97">
+        <v>12.89658874045802</v>
+      </c>
       <c r="J97">
-        <v>12.89658874045802</v>
-      </c>
-      <c r="K97">
         <v>3.8270822400000002</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -3629,14 +3642,14 @@
       <c r="H98">
         <v>0.26600000000000001</v>
       </c>
+      <c r="I98">
+        <v>19.82943702290077</v>
+      </c>
       <c r="J98">
-        <v>19.82943702290077</v>
-      </c>
-      <c r="K98">
         <v>10.816270080000001</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3661,14 +3674,14 @@
       <c r="H99">
         <v>0.10700000000000021</v>
       </c>
+      <c r="I99">
+        <v>7.9765028625954351</v>
+      </c>
       <c r="J99">
-        <v>7.9765028625954351</v>
-      </c>
-      <c r="K99">
         <v>8.1122685000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -3693,14 +3706,14 @@
       <c r="H100">
         <v>0.2170000000000005</v>
       </c>
+      <c r="I100">
+        <v>16.176645992366449</v>
+      </c>
       <c r="J100">
-        <v>16.176645992366449</v>
-      </c>
-      <c r="K100">
         <v>7.3959340200000021</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3725,14 +3738,14 @@
       <c r="H101">
         <v>0.1169999999999991</v>
       </c>
+      <c r="I101">
+        <v>8.7219704198472616</v>
+      </c>
       <c r="J101">
-        <v>8.7219704198472616</v>
-      </c>
-      <c r="K101">
         <v>4.0129200000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -3757,14 +3770,14 @@
       <c r="H102">
         <v>0.17399999999999949</v>
       </c>
+      <c r="I102">
+        <v>12.97113549618317</v>
+      </c>
       <c r="J102">
-        <v>12.97113549618317</v>
-      </c>
-      <c r="K102">
         <v>7.0845935999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -3789,14 +3802,14 @@
       <c r="H103">
         <v>9.2999999999999972E-2</v>
       </c>
+      <c r="I103">
+        <v>6.9328482824427464</v>
+      </c>
       <c r="J103">
-        <v>6.9328482824427464</v>
-      </c>
-      <c r="K103">
         <v>4.5096680000000013</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -3821,10 +3834,10 @@
       <c r="H104">
         <v>0.25500000000000078</v>
       </c>
+      <c r="I104">
+        <v>19.009422709923719</v>
+      </c>
       <c r="J104">
-        <v>19.009422709923719</v>
-      </c>
-      <c r="K104">
         <v>10.40952704</v>
       </c>
     </row>
@@ -3837,11 +3850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3D7079-F64A-4830-8736-0CD9772E4C39}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3850,12 +3866,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
